--- a/dataset/evaluate_parameter.xlsx
+++ b/dataset/evaluate_parameter.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Forex-Trend-Prediction\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Forex Trend Prediction\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DB7883-D5BF-471E-A0A5-DA45754B26C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BF82E6-E9D6-4FB2-A42B-FACDD756913C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Kernel</t>
   </si>
@@ -61,17 +61,32 @@
   </si>
   <si>
     <t>scale</t>
+  </si>
+  <si>
+    <t>model = SVR(kernel='poly', degree=3,coef0=0.1,gamma='auto')</t>
+  </si>
+  <si>
+    <t>sqrt(mse)</t>
+  </si>
+  <si>
+    <t>Pips err</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crossvalidation score : 0.9404343635086494 Abs_err = 0.9841535803512144 mse = 3.1962384323067514e-05 sqrt(mse) = 0.0056535284843244145 Pips err = 425.8599338803512 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crossvalidation score : 0.9595709061097762 Abs_err = 0.9694045685032379 mse = 6.37370069670661e-05 sqrt(mse) = 0.007983546014589388 Pips err = 432.07390197881995 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -84,9 +99,15 @@
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -109,14 +130,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -394,17 +416,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:J15"/>
+  <dimension ref="B3:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="8.796875" style="2"/>
-    <col min="6" max="6" width="17.5" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.796875" style="2"/>
+    <col min="1" max="5" width="8.85546875" style="2"/>
+    <col min="6" max="6" width="17.42578125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
@@ -610,25 +632,234 @@
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D12" s="2">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="E12" s="2">
-        <v>10</v>
+        <v>0.1</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.35350696372503199</v>
+      </c>
+      <c r="G12" s="4">
+        <v>-4.0643768396498497E-2</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1.3430791042191401E-3</v>
+      </c>
+      <c r="I12" s="4">
+        <v>3.6648043661553602E-2</v>
+      </c>
+      <c r="J12" s="4">
+        <v>2836.8041113535601</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E13" s="2">
-        <v>0.1</v>
+        <v>0.01</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.35790833150854401</v>
+      </c>
+      <c r="G13" s="4">
+        <v>-0.33879403470846797</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1.3406862103913001E-3</v>
+      </c>
+      <c r="I13" s="4">
+        <v>3.6615382155472498E-2</v>
+      </c>
+      <c r="J13" s="4">
+        <v>2888.45439570082</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E14" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.17547779951942</v>
+      </c>
+      <c r="G14" s="4">
+        <v>-1.6323378223509799</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1.6557963201978101E-3</v>
+      </c>
+      <c r="I14" s="4">
+        <v>4.0691477242756999E-2</v>
+      </c>
+      <c r="J14" s="4">
+        <v>3038.0796066676899</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D15" s="2">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E15" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.17547016881175401</v>
+      </c>
+      <c r="G15" s="4">
+        <v>-1.6323525640198899</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1.65582406087203E-3</v>
+      </c>
+      <c r="I15" s="4">
+        <v>4.06918181072317E-2</v>
+      </c>
+      <c r="J15" s="4">
+        <v>3038.0891573250301</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E16" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.124020717718065</v>
+      </c>
+      <c r="G16" s="4">
+        <v>-9.8119657596805698</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1.73403161626168E-3</v>
+      </c>
+      <c r="I16" s="4">
+        <v>4.1641705251606598E-2</v>
+      </c>
+      <c r="J16" s="4">
+        <v>3303.1854819871101</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E17" s="2">
         <v>1E-3</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.17486417641103499</v>
+      </c>
+      <c r="G17" s="4">
+        <v>-1.94297567371437</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1.75877498916678E-3</v>
+      </c>
+      <c r="I17" s="4">
+        <v>4.1937751360400601E-2</v>
+      </c>
+      <c r="J17" s="4">
+        <v>3150.4624912972399</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C18" s="2">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.88246602596228996</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.87926885430510904</v>
+      </c>
+      <c r="H18" s="4">
+        <v>2.2556239519803099E-4</v>
+      </c>
+      <c r="I18" s="4">
+        <v>1.5018734806834799E-2</v>
+      </c>
+      <c r="J18" s="4">
+        <v>1099.4581196085501</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E19" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.85277305360575995</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.83495748141078796</v>
+      </c>
+      <c r="H19" s="4">
+        <v>2.8935685895098803E-4</v>
+      </c>
+      <c r="I19" s="4">
+        <v>1.7010492613413301E-2</v>
+      </c>
+      <c r="J19" s="4">
+        <v>1263.59147299966</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E20" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0.98612622669265804</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0.98912699441861696</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="4">
+        <v>2.3670371782309499E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="4">
+        <v>4.8652206303835301E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="4">
+        <v>366.60793903701398</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
